--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H2">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I2">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J2">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.024115666666667</v>
+        <v>0.5297143333333333</v>
       </c>
       <c r="N2">
-        <v>6.072347000000001</v>
+        <v>1.589143</v>
       </c>
       <c r="O2">
-        <v>0.04033801028669427</v>
+        <v>0.03463898003508423</v>
       </c>
       <c r="P2">
-        <v>0.05315356654931185</v>
+        <v>0.0369789110027492</v>
       </c>
       <c r="Q2">
-        <v>18.317198291418</v>
+        <v>2.360282586464999</v>
       </c>
       <c r="R2">
-        <v>164.854784622762</v>
+        <v>21.242543278185</v>
       </c>
       <c r="S2">
-        <v>0.01095532376558968</v>
+        <v>0.005399607631262421</v>
       </c>
       <c r="T2">
-        <v>0.01534999552086617</v>
+        <v>0.006204807265058735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H3">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I3">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J3">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.579165</v>
       </c>
       <c r="O3">
-        <v>0.2363489312718777</v>
+        <v>0.7755286881671239</v>
       </c>
       <c r="P3">
-        <v>0.3114379851145606</v>
+        <v>0.8279171705045608</v>
       </c>
       <c r="Q3">
-        <v>107.32433774751</v>
+        <v>52.84413271207499</v>
       </c>
       <c r="R3">
-        <v>965.9190397275901</v>
+        <v>475.597194408675</v>
       </c>
       <c r="S3">
-        <v>0.06418955831811599</v>
+        <v>0.1208912796695734</v>
       </c>
       <c r="T3">
-        <v>0.0899388693344037</v>
+        <v>0.1389188144029351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H4">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I4">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J4">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.29503</v>
+        <v>2.9029985</v>
       </c>
       <c r="N4">
-        <v>72.59005999999999</v>
+        <v>5.805997</v>
       </c>
       <c r="O4">
-        <v>0.7233130584414281</v>
+        <v>0.1898323317977919</v>
       </c>
       <c r="P4">
-        <v>0.6354084483361276</v>
+        <v>0.13510391849269</v>
       </c>
       <c r="Q4">
-        <v>328.4512206744599</v>
+        <v>12.9350791113525</v>
       </c>
       <c r="R4">
-        <v>1970.70732404676</v>
+        <v>77.61047466811499</v>
       </c>
       <c r="S4">
-        <v>0.1964432227267927</v>
+        <v>0.02959152106665673</v>
       </c>
       <c r="T4">
-        <v>0.1834969404514278</v>
+        <v>0.02266950951960221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>15.939302</v>
       </c>
       <c r="I5">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J5">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.024115666666667</v>
+        <v>0.5297143333333333</v>
       </c>
       <c r="N5">
-        <v>6.072347000000001</v>
+        <v>1.589143</v>
       </c>
       <c r="O5">
-        <v>0.04033801028669427</v>
+        <v>0.03463898003508423</v>
       </c>
       <c r="P5">
-        <v>0.05315356654931185</v>
+        <v>0.0369789110027492</v>
       </c>
       <c r="Q5">
-        <v>10.75433029797711</v>
+        <v>2.814425577576222</v>
       </c>
       <c r="R5">
-        <v>96.78897268179402</v>
+        <v>25.329830198186</v>
       </c>
       <c r="S5">
-        <v>0.006432051912198259</v>
+        <v>0.006438548465953387</v>
       </c>
       <c r="T5">
-        <v>0.009012236439085065</v>
+        <v>0.007398676908796076</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>15.939302</v>
       </c>
       <c r="I6">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J6">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>35.579165</v>
       </c>
       <c r="O6">
-        <v>0.2363489312718777</v>
+        <v>0.7755286881671239</v>
       </c>
       <c r="P6">
-        <v>0.3114379851145606</v>
+        <v>0.8279171705045608</v>
       </c>
       <c r="Q6">
         <v>63.01189509364779</v>
@@ -824,10 +824,10 @@
         <v>567.1070558428301</v>
       </c>
       <c r="S6">
-        <v>0.03768675213598092</v>
+        <v>0.1441520229649896</v>
       </c>
       <c r="T6">
-        <v>0.05280459882895691</v>
+        <v>0.1656482434367112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>15.939302</v>
       </c>
       <c r="I7">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J7">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.29503</v>
+        <v>2.9029985</v>
       </c>
       <c r="N7">
-        <v>72.59005999999999</v>
+        <v>5.805997</v>
       </c>
       <c r="O7">
-        <v>0.7233130584414281</v>
+        <v>0.1898323317977919</v>
       </c>
       <c r="P7">
-        <v>0.6354084483361276</v>
+        <v>0.13510391849269</v>
       </c>
       <c r="Q7">
-        <v>192.8391480896867</v>
+        <v>15.42392326568233</v>
       </c>
       <c r="R7">
-        <v>1157.03488853812</v>
+        <v>92.543539594094</v>
       </c>
       <c r="S7">
-        <v>0.115335067535564</v>
+        <v>0.03528523840618494</v>
       </c>
       <c r="T7">
-        <v>0.1077340909284946</v>
+        <v>0.02703135962996363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H8">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I8">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J8">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.024115666666667</v>
+        <v>0.5297143333333333</v>
       </c>
       <c r="N8">
-        <v>6.072347000000001</v>
+        <v>1.589143</v>
       </c>
       <c r="O8">
-        <v>0.04033801028669427</v>
+        <v>0.03463898003508423</v>
       </c>
       <c r="P8">
-        <v>0.05315356654931185</v>
+        <v>0.0369789110027492</v>
       </c>
       <c r="Q8">
-        <v>9.456112437563558</v>
+        <v>2.984268767130111</v>
       </c>
       <c r="R8">
-        <v>85.10501193807201</v>
+        <v>26.858418904171</v>
       </c>
       <c r="S8">
-        <v>0.005655601455483756</v>
+        <v>0.006827097950532964</v>
       </c>
       <c r="T8">
-        <v>0.007924316877074697</v>
+        <v>0.007845167622453825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H9">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I9">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J9">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>35.579165</v>
       </c>
       <c r="O9">
-        <v>0.2363489312718777</v>
+        <v>0.7755286881671239</v>
       </c>
       <c r="P9">
-        <v>0.3114379851145606</v>
+        <v>0.8279171705045608</v>
       </c>
       <c r="Q9">
-        <v>55.40536215644889</v>
+        <v>66.81449741783389</v>
       </c>
       <c r="R9">
-        <v>498.6482594080401</v>
+        <v>601.330476760505</v>
       </c>
       <c r="S9">
-        <v>0.0331373647386911</v>
+        <v>0.1528512188350414</v>
       </c>
       <c r="T9">
-        <v>0.04643024808722646</v>
+        <v>0.1756446797374071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H10">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I10">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J10">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.29503</v>
+        <v>2.9029985</v>
       </c>
       <c r="N10">
-        <v>72.59005999999999</v>
+        <v>5.805997</v>
       </c>
       <c r="O10">
-        <v>0.7233130584414281</v>
+        <v>0.1898323317977919</v>
       </c>
       <c r="P10">
-        <v>0.6354084483361276</v>
+        <v>0.13510391849269</v>
       </c>
       <c r="Q10">
-        <v>169.5604111250933</v>
+        <v>16.35471651306817</v>
       </c>
       <c r="R10">
-        <v>1017.36246675056</v>
+        <v>98.12829907840899</v>
       </c>
       <c r="S10">
-        <v>0.1014122996403993</v>
+        <v>0.0374146098426956</v>
       </c>
       <c r="T10">
-        <v>0.09472888119961932</v>
+        <v>0.02866263116690194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H11">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I11">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J11">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.024115666666667</v>
+        <v>0.5297143333333333</v>
       </c>
       <c r="N11">
-        <v>6.072347000000001</v>
+        <v>1.589143</v>
       </c>
       <c r="O11">
-        <v>0.04033801028669427</v>
+        <v>0.03463898003508423</v>
       </c>
       <c r="P11">
-        <v>0.05315356654931185</v>
+        <v>0.0369789110027492</v>
       </c>
       <c r="Q11">
-        <v>12.04936321238917</v>
+        <v>3.224423588719</v>
       </c>
       <c r="R11">
-        <v>72.29617927433502</v>
+        <v>19.346541532314</v>
       </c>
       <c r="S11">
-        <v>0.007206597486186307</v>
+        <v>0.007376499032747431</v>
       </c>
       <c r="T11">
-        <v>0.006731657989643534</v>
+        <v>0.005650997617443435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H12">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I12">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J12">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>35.579165</v>
       </c>
       <c r="O12">
-        <v>0.2363489312718777</v>
+        <v>0.7755286881671239</v>
       </c>
       <c r="P12">
-        <v>0.3114379851145606</v>
+        <v>0.8279171705045608</v>
       </c>
       <c r="Q12">
-        <v>70.59976675880418</v>
+        <v>72.19129989744501</v>
       </c>
       <c r="R12">
-        <v>423.5986005528251</v>
+        <v>433.1477993846701</v>
       </c>
       <c r="S12">
-        <v>0.0422249784226112</v>
+        <v>0.1651517051696803</v>
       </c>
       <c r="T12">
-        <v>0.03944220749194596</v>
+        <v>0.1265196251348223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H13">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I13">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J13">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.29503</v>
+        <v>2.9029985</v>
       </c>
       <c r="N13">
-        <v>72.59005999999999</v>
+        <v>5.805997</v>
       </c>
       <c r="O13">
-        <v>0.7233130584414281</v>
+        <v>0.1898323317977919</v>
       </c>
       <c r="P13">
-        <v>0.6354084483361276</v>
+        <v>0.13510391849269</v>
       </c>
       <c r="Q13">
-        <v>216.060774824575</v>
+        <v>17.6708392663515</v>
       </c>
       <c r="R13">
-        <v>864.2430992983</v>
+        <v>70.683357065406</v>
       </c>
       <c r="S13">
-        <v>0.1292236784026291</v>
+        <v>0.04042549781986374</v>
       </c>
       <c r="T13">
-        <v>0.08047159646306502</v>
+        <v>0.02064614399955431</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H14">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I14">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J14">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.024115666666667</v>
+        <v>0.5297143333333333</v>
       </c>
       <c r="N14">
-        <v>6.072347000000001</v>
+        <v>1.589143</v>
       </c>
       <c r="O14">
-        <v>0.04033801028669427</v>
+        <v>0.03463898003508423</v>
       </c>
       <c r="P14">
-        <v>0.05315356654931185</v>
+        <v>0.0369789110027492</v>
       </c>
       <c r="Q14">
-        <v>16.86776954483133</v>
+        <v>3.758029556687888</v>
       </c>
       <c r="R14">
-        <v>151.809925903482</v>
+        <v>33.822266010191</v>
       </c>
       <c r="S14">
-        <v>0.01008843566723627</v>
+        <v>0.008597226954588033</v>
       </c>
       <c r="T14">
-        <v>0.01413535972264238</v>
+        <v>0.009879261588997129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H15">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I15">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J15">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>35.579165</v>
       </c>
       <c r="O15">
-        <v>0.2363489312718777</v>
+        <v>0.7755286881671239</v>
       </c>
       <c r="P15">
-        <v>0.3114379851145606</v>
+        <v>0.8279171705045608</v>
       </c>
       <c r="Q15">
-        <v>98.83182825644333</v>
+        <v>84.1381509859561</v>
       </c>
       <c r="R15">
-        <v>889.48645430799</v>
+        <v>757.2433588736051</v>
       </c>
       <c r="S15">
-        <v>0.05911027765647849</v>
+        <v>0.1924824615278393</v>
       </c>
       <c r="T15">
-        <v>0.08282206137202755</v>
+        <v>0.2211858077926852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H16">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I16">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J16">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.29503</v>
+        <v>2.9029985</v>
       </c>
       <c r="N16">
-        <v>72.59005999999999</v>
+        <v>5.805997</v>
       </c>
       <c r="O16">
-        <v>0.7233130584414281</v>
+        <v>0.1898323317977919</v>
       </c>
       <c r="P16">
-        <v>0.6354084483361276</v>
+        <v>0.13510391849269</v>
       </c>
       <c r="Q16">
-        <v>302.46107559206</v>
+        <v>20.59516512866483</v>
       </c>
       <c r="R16">
-        <v>1814.76645355236</v>
+        <v>123.570990771989</v>
       </c>
       <c r="S16">
-        <v>0.1808987901360431</v>
+        <v>0.04711546466239092</v>
       </c>
       <c r="T16">
-        <v>0.1689769392935208</v>
+        <v>0.03609427417666791</v>
       </c>
     </row>
   </sheetData>
